--- a/excel/일산_processed.xlsx
+++ b/excel/일산_processed.xlsx
@@ -468,39 +468,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>모꼬지</t>
+          <t>보틀앤스틱스</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 강석로 33 대우이안 106호 모꼬지</t>
+          <t>경기 고양시 일산동구 무궁화로141번길 25-9 1층</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0507-1338-9766</t>
+          <t>0507-1408-7467</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>미담화 밤리단길점</t>
+          <t>황제카야</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -510,22 +510,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 대산로 20 메디컬프라자 1층 101호</t>
+          <t>경기 고양시 일산동구 무궁화로141번길 25-9 1층</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0507-1384-1424</t>
+          <t>0507-1408-7467</t>
         </is>
       </c>
     </row>
@@ -542,22 +542,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 32-34 라페스타C 1층 126호</t>
+          <t>경기 고양시 일산동구 무궁화로141번길 25-9 1층</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0507-1432-3412</t>
+          <t>0507-1408-7467</t>
         </is>
       </c>
     </row>
@@ -574,22 +574,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 무궁화로141번길 25-9 1층</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1408-7467</t>
         </is>
       </c>
     </row>
@@ -606,22 +606,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 무궁화로141번길 25-9 1층</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1408-7467</t>
         </is>
       </c>
     </row>
@@ -638,22 +638,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 무궁화로141번길 25-9 1층</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1408-7467</t>
         </is>
       </c>
     </row>
@@ -670,22 +670,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 무궁화로141번길 25-9 1층</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1408-7467</t>
         </is>
       </c>
     </row>
@@ -702,44 +702,44 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 대산로11번길 5-20 1층</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '22:30'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '22:30'})]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1434-5201</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>노상가는술집</t>
+          <t>이자카야 이로</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 대산로11번길 5-20 1층</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -749,78 +749,78 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1434-5201</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>이자카야 이로</t>
+          <t>노상가는술집</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 대산로11번길 5-20 1층</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '22:30'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '22:30'})]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1434-5201</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>모꼬지</t>
+          <t>보틀앤스틱스</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>미담화 밤리단길점</t>
+          <t>황제카야</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -862,22 +862,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 32-34 라페스타C 1층 126호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0507-1432-3412</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -894,22 +894,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 일산로441번길 87-7 1층 구각</t>
+          <t>경기 고양시 일산동구 백석로86번길 50 1층</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0507-1332-9377</t>
+          <t>0507-1362-5484</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1044,12 +1044,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>노상가는술집</t>
+          <t>이자카야 이로</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1076,12 +1076,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>이자카야 이로</t>
+          <t>노상가는술집</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1118,22 +1118,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1150,12 +1150,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1182,22 +1182,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1214,12 +1214,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1246,22 +1246,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1310,22 +1310,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1374,22 +1374,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 무궁화로 37 노블리제빌딩 1층 101호, 이로</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 57 대명레이크프라자1차 3층 303호 노상가는술집</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1421,19 +1421,19 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0507-1325-7904</t>
+          <t>0507-1414-5689</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>쉼, 어묵 그리고 한잔 술 백석점</t>
+          <t>화류</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>오뎅,꼬치</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1460,12 +1460,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>전류 일산밤리단길점</t>
+          <t>1987래빗</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1492,12 +1492,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>화류</t>
+          <t>쉼, 어묵 그리고 한잔 술 백석점</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>오뎅,꼬치</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1524,12 +1524,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>비스트로온</t>
+          <t>레드제플린</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1556,12 +1556,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>범맥주 파주야당점</t>
+          <t>전류 일산밤리단길점</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1588,12 +1588,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>지느러미</t>
+          <t>비스트로온</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1620,12 +1620,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>레드제플린</t>
+          <t>복덕주점 밤리단길</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1652,12 +1652,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>복덕주점 밤리단길</t>
+          <t>지느러미</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>추억의 길가 포장마차</t>
+          <t>밀회관 파주야당역점</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1716,12 +1716,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>밀회관 파주야당역점</t>
+          <t>임가주방 벨라시타점</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1748,22 +1748,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>역전할머니맥주 일산탄현점</t>
+          <t>1943 일산점</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>경기 고양시 일산서구 일현로 36 1층 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1773,29 +1773,29 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>031-922-7656</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>노노스탄테</t>
+          <t>푸른술집할라 일산라페스타점</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>경기 고양시 일산서구 일현로 36 1층 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1805,29 +1805,29 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>031-922-7656</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>청담이상 일산라페스타점</t>
+          <t>노노스탄테</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>경기 고양시 일산서구 일현로 36 1층 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1837,29 +1837,29 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>031-922-7656</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>등대 숯불꼬치</t>
+          <t>청담이상 일산라페스타점</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>오뎅,꼬치</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>경기 고양시 일산서구 일현로 36 1층 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1869,29 +1869,29 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>031-922-7656</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>푸른술집할라 일산라페스타점</t>
+          <t>산카이 대화역점</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>경기 고양시 일산서구 일현로 36 1층 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1901,29 +1901,29 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>031-922-7656</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>저스트밤</t>
+          <t>설맥 일산식사점</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>경기 고양시 일산서구 일현로 36 1층 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1933,29 +1933,29 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>031-922-7656</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>울룰루펍</t>
+          <t>산카이 일산본점</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>경기 고양시 일산서구 일현로 36 1층 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1965,29 +1965,29 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>031-922-7656</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>엉클39</t>
+          <t>데미안</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>경기 고양시 일산서구 일현로 36 1층 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1997,46 +1997,46 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>031-922-7656</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>골뱅이 일산</t>
+          <t>역전할머니맥주 일산웨스턴돔점</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 중앙로1261번길 59 105호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0507-1374-2062</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>설맥 일산식사점</t>
+          <t>하루비어 탄현위브더제니스점</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2046,12 +2046,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>경기 고양시 일산동구 위시티1로 6-31 103호</t>
+          <t>경기 고양시 일산동구 중앙로1261번길 55 효산캐슬 115호</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>031-967-6864</t>
+          <t>031-905-5927</t>
         </is>
       </c>
     </row>

--- a/excel/일산_processed.xlsx
+++ b/excel/일산_processed.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '22:30'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '22:30'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('토', {'open_time': '16:00-24:00', 'last_order_time': '22:30'}), ('일', {'open_time': '16:00-24:00', 'last_order_time': '22:30'}), ('월(7/17)', {'open_time': '16:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '22:30'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '22:30'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('토', {'open_time': '16:00-24:00', 'last_order_time': '22:30'}), ('일', {'open_time': '16:00-24:00', 'last_order_time': '22:30'}), ('월(7/17)', {'open_time': '16:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:30-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:30-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00-23:00', 'last_order_time': '22:00'})]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:30-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:30-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:30-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:30-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:30-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('화', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('수', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('목', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('금', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('토', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('화', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('수', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('목', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('금', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('토', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('화', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('수', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('목', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('금', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('토', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('화', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('수', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('목', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('금', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('토', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('화', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('수', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('목', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('금', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('토', {'open_time': '16:30 - 02:00', 'last_order_time': '01:15'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">

--- a/excel/일산_processed.xlsx
+++ b/excel/일산_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,75 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>shop_open_info</t>
+          <t>월opening_hours</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>월last_order_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>화opening_hours</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>화last_order_time</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>수opening_hours</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>수last_order_time</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>목opening_hours</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>목last_order_time</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>금opening_hours</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>금last_order_time</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>토opening_hours</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>토last_order_time</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>일opening_hours</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>일last_order_time</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>shop_contact</t>
         </is>
@@ -488,10 +553,75 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '23:00'})]</t>
+          <t>휴무</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>0507-1408-7467</t>
         </is>
@@ -520,10 +650,75 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>0507-1408-7467</t>
         </is>
@@ -552,10 +747,75 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '23:00'})]</t>
+          <t>휴무</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>0507-1408-7467</t>
         </is>
@@ -584,10 +844,75 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>0507-1408-7467</t>
         </is>
@@ -616,10 +941,75 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '23:00'})]</t>
+          <t>휴무</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>0507-1408-7467</t>
         </is>
@@ -648,10 +1038,75 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>0507-1408-7467</t>
         </is>
@@ -680,10 +1135,75 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '23:00'})]</t>
+          <t>휴무</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>0507-1408-7467</t>
         </is>
@@ -712,10 +1232,75 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('토', {'open_time': '16:00-24:00', 'last_order_time': '22:30'}), ('일', {'open_time': '16:00-24:00', 'last_order_time': '22:30'}), ('월(7/17)', {'open_time': '16:00-24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>0507-1434-5201</t>
         </is>
@@ -744,10 +1329,75 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>0507-1434-5201</t>
         </is>
@@ -776,10 +1426,75 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('토', {'open_time': '16:00-24:00', 'last_order_time': '22:30'}), ('일', {'open_time': '16:00-24:00', 'last_order_time': '22:30'}), ('월(7/17)', {'open_time': '16:00-24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>0507-1434-5201</t>
         </is>
@@ -808,10 +1523,75 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:30-26:00', 'last_order_time': '01:00'})]</t>
+          <t>16:30-26:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>0507-1414-5689</t>
         </is>
@@ -840,10 +1620,75 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>0507-1414-5689</t>
         </is>
@@ -872,10 +1717,75 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:30-26:00', 'last_order_time': '01:00'})]</t>
+          <t>16:30-26:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>0507-1414-5689</t>
         </is>
@@ -904,10 +1814,75 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>0507-1414-5689</t>
         </is>
@@ -936,10 +1911,75 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>0507-1362-5484</t>
         </is>
@@ -968,10 +2008,75 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00-23:00', 'last_order_time': '22:00'})]</t>
+          <t>휴무</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>17:00-24:00</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>17:00-23:00</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>0507-1320-6688</t>
         </is>
@@ -1000,10 +2105,75 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>휴무</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16:00-25:00</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>16:00-25:00</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
         <is>
           <t>0507-1362-8220</t>
         </is>
@@ -1032,10 +2202,75 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>0507-1362-8220</t>
         </is>
@@ -1064,10 +2299,75 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>휴무</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>16:00-25:00</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>16:00-25:00</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
         <is>
           <t>0507-1362-8220</t>
         </is>
@@ -1096,10 +2396,75 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
         <is>
           <t>0507-1362-8220</t>
         </is>
@@ -1128,10 +2493,75 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:30-26:00', 'last_order_time': '01:00'})]</t>
+          <t>16:30-26:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
         <is>
           <t>0507-1414-5689</t>
         </is>
@@ -1160,10 +2590,75 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
         <is>
           <t>0507-1414-5689</t>
         </is>
@@ -1192,10 +2687,75 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:30-26:00', 'last_order_time': '01:00'})]</t>
+          <t>16:30-26:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
         <is>
           <t>0507-1414-5689</t>
         </is>
@@ -1224,10 +2784,75 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
         <is>
           <t>0507-1414-5689</t>
         </is>
@@ -1256,10 +2881,75 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:30-26:00', 'last_order_time': '01:00'})]</t>
+          <t>16:30-26:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>0507-1414-5689</t>
         </is>
@@ -1288,10 +2978,75 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>0507-1414-5689</t>
         </is>
@@ -1320,10 +3075,75 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:30-26:00', 'last_order_time': '01:00'})]</t>
+          <t>16:30-26:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
         <is>
           <t>0507-1414-5689</t>
         </is>
@@ -1352,10 +3172,75 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
         <is>
           <t>0507-1414-5689</t>
         </is>
@@ -1384,10 +3269,75 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:30-26:00', 'last_order_time': '01:00'})]</t>
+          <t>16:30-26:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>0507-1414-5689</t>
         </is>
@@ -1416,10 +3366,75 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
         <is>
           <t>0507-1414-5689</t>
         </is>
@@ -1448,10 +3463,75 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>16:30-26:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>휴무</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
         <is>
           <t>031-965-5815</t>
         </is>
@@ -1480,10 +3560,75 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
         <is>
           <t>031-965-5815</t>
         </is>
@@ -1512,10 +3657,75 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>16:30-26:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>휴무</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
         <is>
           <t>031-965-5815</t>
         </is>
@@ -1544,10 +3754,75 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>031-965-5815</t>
         </is>
@@ -1576,10 +3851,75 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>16:30-26:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>휴무</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
         <is>
           <t>031-965-5815</t>
         </is>
@@ -1608,10 +3948,75 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
         <is>
           <t>031-965-5815</t>
         </is>
@@ -1640,10 +4045,75 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>16:30-26:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>휴무</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
         <is>
           <t>031-965-5815</t>
         </is>
@@ -1672,10 +4142,75 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
         <is>
           <t>031-965-5815</t>
         </is>
@@ -1704,10 +4239,75 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '01:15'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>16:30-26:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>16:30-26:00</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>휴무</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
         <is>
           <t>031-965-5815</t>
         </is>
@@ -1736,10 +4336,75 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
         <is>
           <t>031-965-5815</t>
         </is>
@@ -1768,10 +4433,75 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>031-905-5927</t>
         </is>
@@ -1800,10 +4530,75 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
         <is>
           <t>031-905-5927</t>
         </is>
@@ -1832,10 +4627,75 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>031-905-5927</t>
         </is>
@@ -1864,10 +4724,75 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
         <is>
           <t>031-905-5927</t>
         </is>
@@ -1896,10 +4821,75 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
         <is>
           <t>031-905-5927</t>
         </is>
@@ -1928,10 +4918,75 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
         <is>
           <t>031-905-5927</t>
         </is>
@@ -1960,10 +5015,75 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
         <is>
           <t>031-905-5927</t>
         </is>
@@ -1992,10 +5112,75 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
         <is>
           <t>031-905-5927</t>
         </is>
@@ -2024,10 +5209,75 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
         <is>
           <t>031-905-5927</t>
         </is>
@@ -2056,10 +5306,75 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
         <is>
           <t>031-905-5927</t>
         </is>
